--- a/samples/avanza/excel_sample.xlsx
+++ b/samples/avanza/excel_sample.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="7575" windowHeight="3105"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="17235" windowHeight="9795"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="new_excel_sample" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
   <si>
     <t>Datum</t>
   </si>
@@ -39,53 +37,83 @@
     <t>Belopp</t>
   </si>
   <si>
+    <t>Courtage</t>
+  </si>
+  <si>
     <t>Valuta</t>
   </si>
   <si>
+    <t>ISIN</t>
+  </si>
+  <si>
+    <t>ISK</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Köp</t>
+  </si>
+  <si>
     <t>Insättning</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>SEK</t>
-  </si>
-  <si>
-    <t>ISK</t>
+    <t>Räntor</t>
+  </si>
+  <si>
+    <t>Sparkonto</t>
+  </si>
+  <si>
+    <t>dec-jan</t>
   </si>
   <si>
     <t>Split</t>
   </si>
   <si>
-    <t>Köp</t>
-  </si>
-  <si>
-    <t>Räntor</t>
+    <t>Privatekonomi software group AB</t>
+  </si>
+  <si>
+    <t>Preliminär skatt, ränta</t>
   </si>
   <si>
     <t>Intjänad ränta</t>
   </si>
   <si>
-    <t>Sparkonto</t>
-  </si>
-  <si>
-    <t>dec-jan</t>
-  </si>
-  <si>
-    <t>Privatekonomi software group AB</t>
-  </si>
-  <si>
-    <t>Preliminär skatt, ränta</t>
-  </si>
-  <si>
     <t>nov-dec</t>
+  </si>
+  <si>
+    <t>SE0000000001</t>
+  </si>
+  <si>
+    <t>SE0000000002</t>
+  </si>
+  <si>
+    <t>SE0000000003</t>
+  </si>
+  <si>
+    <t>SE0000000004</t>
+  </si>
+  <si>
+    <t>SE0000000005</t>
+  </si>
+  <si>
+    <t>SE0000000006</t>
+  </si>
+  <si>
+    <t>SE0000000007</t>
+  </si>
+  <si>
+    <t>SE0000000008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,16 +121,317 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -110,17 +439,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Dekorfärg1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Dekorfärg2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Dekorfärg3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Dekorfärg4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Dekorfärg5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Dekorfärg6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Dekorfärg1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Dekorfärg2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Dekorfärg3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Dekorfärg4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Dekorfärg5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Dekorfärg6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Dekorfärg1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Dekorfärg2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Dekorfärg3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Dekorfärg4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Dekorfärg5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Dekorfärg6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Anteckning" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Beräkning" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Bra" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Dålig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Färg1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Färg2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Färg3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Färg4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Färg5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Färg6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Förklarande text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Indata" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Kontrollcell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Länkad cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Rubrik" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Rubrik 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Rubrik 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Rubrik 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Rubrik 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Summa" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Utdata" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Varningstext" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -128,7 +645,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -412,308 +929,650 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
         <v>42361</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
         <v>9000</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2">
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
         <v>42361</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>1337</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1337</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>42359</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>75</v>
+      </c>
+      <c r="F4">
+        <v>69.819999999999993</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
         <v>42359</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>-15</v>
+      </c>
+      <c r="F5">
+        <v>349.1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>42352</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>346.5</v>
+      </c>
+      <c r="G6">
+        <v>-1234</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1">
-        <v>75</v>
-      </c>
-      <c r="F4" s="1">
-        <v>69.819999999999993</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>-123</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>1.23</v>
+      </c>
+      <c r="H8">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>1500</v>
+      </c>
+      <c r="H9">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2">
-        <v>42359</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>3000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="J10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-15</v>
-      </c>
-      <c r="F5" s="1">
-        <v>349.1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2">
-        <v>42352</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1">
-        <v>346.5</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-1234</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2">
-        <v>42338</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1">
-        <v>-123</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2">
-        <v>42338</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1.23</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2">
-        <v>42338</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1500</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2">
-        <v>42338</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>